--- a/time/Diagramme de Gantt.xlsx
+++ b/time/Diagramme de Gantt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>31/10 au 6/11</t>
   </si>
@@ -83,12 +83,21 @@
   </si>
   <si>
     <t>Conception du prototype final</t>
+  </si>
+  <si>
+    <t>26/12 au 1/1</t>
+  </si>
+  <si>
+    <t>EXAM</t>
+  </si>
+  <si>
+    <t>23/1 au 29/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,6 +243,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -269,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,20 +488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="23" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -498,8 +541,18 @@
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -513,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -526,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -536,7 +589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -551,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -596,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -627,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -643,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -661,8 +714,11 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -679,6 +735,9 @@
       </c>
       <c r="M10">
         <v>4</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
